--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_1.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-263724.5473518897</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>11770612.93405958</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>29082912.0470611</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.378726134181789e-10</v>
+        <v>952673.4927760733</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22983,10 +22983,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23065,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23302,10 +23302,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -23384,7 +23384,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>129.0132581705354</v>
@@ -23457,10 +23457,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -23621,7 +23621,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23694,10 +23694,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23776,10 +23776,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23834,7 +23834,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -23855,10 +23855,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23913,10 +23913,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>134.8846762812383</v>
@@ -23925,16 +23925,16 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -24013,10 +24013,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24153,7 +24153,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
@@ -24168,10 +24168,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24247,13 +24247,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,16 +24305,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -24332,7 +24332,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,10 +24387,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>134.8846762812383</v>
@@ -24405,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24484,13 +24484,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -24569,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>134.8846762812383</v>
@@ -24642,10 +24642,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -24724,10 +24724,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -24806,7 +24806,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -24879,10 +24879,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>220.0898510449805</v>
@@ -24961,10 +24961,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -25043,7 +25043,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,10 +25098,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -25116,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25195,13 +25195,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -25280,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,10 +25335,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
@@ -25353,10 +25353,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25435,10 +25435,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -25517,7 +25517,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,10 +25572,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25669,13 +25669,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>222.3056898744495</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -25754,7 +25754,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25815,7 +25815,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>138.9257839476051</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -25991,7 +25991,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,10 +26046,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>134.8846762812383</v>
@@ -26064,10 +26064,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>87941.47175267609</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>97432.63995971443</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>62928.48741873164</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>82688.14064654426</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>66042.86798466582</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>120948.2311547194</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>100146.6818352758</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>81877.82130295692</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>90657.07051555665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>67475.77186501384</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>60424.98436816931</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>18703.10255110307</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1238.612278206707</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1372.29070365795</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>886.3167242074884</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1164.621699247103</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>930.1812392206459</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1703.496213446753</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1410.516645567266</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1153.208750745873</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1276.860148106433</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>950.3629840142798</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>851.05611786154</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>263.4239795930011</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2477.224556413413</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2744.581407315901</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1772.633448414977</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2329.243398494205</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1860.362478441292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3406.992426893506</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2821.033291134532</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2306.417501491746</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2553.720296212865</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1900.72596802856</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1702.11223572308</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>526.8479591860023</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
     </row>
   </sheetData>
